--- a/Tasks/crash_log.xlsx
+++ b/Tasks/crash_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smallwood Lab\Documents\GitHub\COGPLAY\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F74E5BB-3B1F-4367-BC57-4C64D80F8439}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC78069B-A660-45BD-B43C-B3FE9F25B78D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9980" xr2:uid="{772A88E3-5297-4206-8295-3E4537D9D764}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>subjectID</t>
   </si>
@@ -120,10 +120,13 @@
     <t>Tetris, NBA, Dirt</t>
   </si>
   <si>
-    <t>(?)/#1</t>
-  </si>
-  <si>
-    <t>First tablet freezing after sleep; sub left early on 2nd attempt</t>
+    <t>Tablet 4 freezing after sleep; sub left early on 2nd attempt</t>
+  </si>
+  <si>
+    <t>#3?</t>
+  </si>
+  <si>
+    <t>#4?</t>
   </si>
 </sst>
 </file>
@@ -490,7 +493,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -594,6 +597,9 @@
       <c r="B4">
         <v>444</v>
       </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
       <c r="D4">
         <v>1</v>
       </c>
@@ -617,6 +623,9 @@
       <c r="B5">
         <v>445</v>
       </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
       <c r="D5">
         <v>1</v>
       </c>
@@ -647,7 +656,7 @@
         <v>29</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -670,7 +679,7 @@
         <v>448</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -685,7 +694,7 @@
         <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
